--- a/biology/Médecine/Lyra_Etk/Lyra_Etk.xlsx
+++ b/biology/Médecine/Lyra_Etk/Lyra_Etk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 LYRA ETK est une entreprise française active dans le domaine des implants dentaires, des prothèses dentaires, des dispositifs médicaux dédiés à l'orthodontie, et l'imagerie médicale.
@@ -515,15 +527,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">LYRA
-2014 : LYRA est créée.
-ETK (Euroteknika)
-1992 : Euroteknika est créée.
+          <t>LYRA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2014 : LYRA est créée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lyra_Etk</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lyra_Etk</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ETK (Euroteknika)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1992 : Euroteknika est créée.
 2004 : Le Groupe Stemmer (RAS Holding) acquiert la société Euroteknika.
-2015 : La société « Euroteknika » devient « ETK »[1].
-2016 : ETK devient une entité de LYRA[2],[3],[4],[5],[6],[7],[8].
-LYRA ETK
-En 2016, LYRA ETK fournit une solution numérique complète, de la fourniture d'implants dentaires à la numérisation complète du cabinet dentaire[9],[10],[11],[12].
+2015 : La société « Euroteknika » devient « ETK ».
+2016 : ETK devient une entité de LYRA.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lyra_Etk</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lyra_Etk</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LYRA ETK</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, LYRA ETK fournit une solution numérique complète, de la fourniture d'implants dentaires à la numérisation complète du cabinet dentaire.
 </t>
         </is>
       </c>
